--- a/data/trans_orig/P23-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P23-Clase-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según consumo de tabaco y/o marihuana/hachís, actual o pasado (2007/2012/2016) en 2007</t>
+          <t>Población según el consumo de tabaco y/o marihuana/hachís, actual o pasado en 2007</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3565,7 +3565,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
@@ -4770,7 +4770,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según consumo de tabaco y/o marihuana/hachís, actual o pasado (2007/2012/2016) en 2012</t>
+          <t>Población según el consumo de tabaco y/o marihuana/hachís, actual o pasado en 2012</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7790,7 +7790,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
@@ -8995,7 +8995,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según consumo de tabaco y/o marihuana/hachís, actual o pasado (2007/2012/2016) en 2016</t>
+          <t>Población según el consumo de tabaco y/o marihuana/hachís, actual o pasado en 2016</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -12015,7 +12015,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
